--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value607.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value607.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6311000151305706</v>
+        <v>1.071307897567749</v>
       </c>
       <c r="B1">
-        <v>0.5875142496747433</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>0.5765397073168913</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.713293198877515</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.058780655940593</v>
+        <v>1.158729314804077</v>
       </c>
     </row>
   </sheetData>
